--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:40:40+00:00</t>
+    <t>2022-08-01T09:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:44:39+00:00</t>
+    <t>2022-08-01T11:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -7,13 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core JFAGY (A" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JFAGY Food Aller" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JFAGY Non Food N" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from JFAGY Medication" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core AllergyIntolerance Codes</t>
+    <t>JP Core AllergyIntolerance ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:03:16+00:00</t>
+    <t>2022-08-01T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>J-FAGYアレルゲンコード</t>
+    <t>アレルギー・不耐症のコード</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -108,7 +110,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/jfagy</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyFoodAllergenCodes_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyNonFoodNonMedicationAllergenCodes_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyMedicationAllergenCodes_CS</t>
   </si>
 </sst>
 </file>
@@ -414,4 +422,90 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:09:19+00:00</t>
+    <t>2022-08-01T11:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:21:55+00:00</t>
+    <t>2022-08-01T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:27:43+00:00</t>
+    <t>2022-08-01T11:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:51:23+00:00</t>
+    <t>2022-08-01T13:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:06:52+00:00</t>
+    <t>2022-08-01T14:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:20:34+00:00</t>
+    <t>2022-08-01T14:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>アレルギー・不耐症のコード</t>
+    <t>アレルギー・不耐症に関連するアレルゲンコード.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:34:44+00:00</t>
+    <t>2022-08-01T14:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:41:03+00:00</t>
+    <t>2022-08-02T00:22:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>アレルギー・不耐症に関連するアレルゲンコード.</t>
+    <t>アレルギー・不耐症に関連するアレルゲンコード</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T00:22:21+00:00</t>
+    <t>2022-08-02T00:58:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T00:58:15+00:00</t>
+    <t>2022-08-02T01:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T01:03:51+00:00</t>
+    <t>2022-08-02T02:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T02:05:44+00:00</t>
+    <t>2022-08-02T03:17:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T03:17:04+00:00</t>
+    <t>2022-08-02T10:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T10:24:16+00:00</t>
+    <t>2022-08-02T14:52:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T14:52:15+00:00</t>
+    <t>2022-08-02T14:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T14:57:12+00:00</t>
+    <t>2022-08-02T15:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:10:58+00:00</t>
+    <t>2022-08-02T15:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:29:28+00:00</t>
+    <t>2022-08-02T15:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:38:12+00:00</t>
+    <t>2022-08-02T15:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:45:21+00:00</t>
+    <t>2022-08-03T00:42:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:42:14+00:00</t>
+    <t>2022-08-03T04:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T04:22:04+00:00</t>
+    <t>2022-08-03T04:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T04:53:18+00:00</t>
+    <t>2022-08-03T05:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T05:13:01+00:00</t>
+    <t>2022-08-03T06:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T06:56:18+00:00</t>
+    <t>2022-08-03T07:07:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -44,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core AllergyIntolerance ValueSet</t>
+    <t>JP Core AllergyIntolerance Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T07:07:21+00:00</t>
+    <t>2022-08-03T07:27:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T07:27:02+00:00</t>
+    <t>2022-08-03T07:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T07:57:27+00:00</t>
+    <t>2022-08-03T08:20:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T08:20:25+00:00</t>
+    <t>2022-08-03T08:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T08:29:29+00:00</t>
+    <t>2022-08-03T08:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T08:45:02+00:00</t>
+    <t>2022-08-03T10:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T10:02:20+00:00</t>
+    <t>2022-08-03T10:14:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T10:14:30+00:00</t>
+    <t>2022-08-03T11:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T11:08:38+00:00</t>
+    <t>2022-08-03T11:27:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T11:27:08+00:00</t>
+    <t>2022-08-03T13:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:20:18+00:00</t>
+    <t>2022-08-03T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:33:23+00:00</t>
+    <t>2022-08-03T15:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:28:41+00:00</t>
+    <t>2022-08-03T16:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T16:21:55+00:00</t>
+    <t>2022-08-04T00:56:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T00:56:19+00:00</t>
+    <t>2022-08-04T02:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:05:34+00:00</t>
+    <t>2022-08-04T02:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:21:29+00:00</t>
+    <t>2022-08-04T02:24:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:24:31+00:00</t>
+    <t>2022-08-04T02:27:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:27:35+00:00</t>
+    <t>2022-08-04T05:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T05:11:55+00:00</t>
+    <t>2022-08-04T12:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T12:50:04+00:00</t>
+    <t>2022-08-04T13:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:25:29+00:00</t>
+    <t>2022-08-04T15:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T15:34:31+00:00</t>
+    <t>2022-08-05T02:10:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T02:10:27+00:00</t>
+    <t>2022-08-05T03:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T03:56:21+00:00</t>
+    <t>2022-08-05T04:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T04:18:29+00:00</t>
+    <t>2022-08-05T04:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T04:22:43+00:00</t>
+    <t>2022-08-05T05:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T05:15:33+00:00</t>
+    <t>2022-08-05T05:39:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T05:39:16+00:00</t>
+    <t>2022-08-05T05:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T05:54:56+00:00</t>
+    <t>2022-08-05T07:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:10:48+00:00</t>
+    <t>2022-08-05T07:27:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:27:31+00:00</t>
+    <t>2022-08-05T07:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:43:50+00:00</t>
+    <t>2022-08-05T07:55:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T07:55:02+00:00</t>
+    <t>2022-08-05T08:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T08:06:18+00:00</t>
+    <t>2022-08-05T08:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T08:47:13+00:00</t>
+    <t>2022-08-05T10:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T10:40:45+00:00</t>
+    <t>2022-08-05T11:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T11:59:14+00:00</t>
+    <t>2022-08-06T02:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T02:11:54+00:00</t>
+    <t>2022-08-06T02:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T02:25:12+00:00</t>
+    <t>2022-08-06T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:41:34+00:00</t>
+    <t>2022-08-06T07:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:51:51+00:00</t>
+    <t>2022-08-06T08:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:21:33+00:00</t>
+    <t>2022-08-06T09:00:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T09:00:14+00:00</t>
+    <t>2022-08-06T09:11:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T09:11:16+00:00</t>
+    <t>2022-08-08T02:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T02:28:59+00:00</t>
+    <t>2022-08-08T02:48:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T02:48:30+00:00</t>
+    <t>2022-08-08T06:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T06:09:56+00:00</t>
+    <t>2022-08-08T10:00:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:00:27+00:00</t>
+    <t>2022-08-08T10:28:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:28:38+00:00</t>
+    <t>2022-08-08T10:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:40:02+00:00</t>
+    <t>2022-08-08T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:46:36+00:00</t>
+    <t>2022-08-08T12:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:43:36+00:00</t>
+    <t>2022-08-08T13:51:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:51:59+00:00</t>
+    <t>2022-08-08T14:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:49:45+00:00</t>
+    <t>2022-08-09T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T06:53:55+00:00</t>
+    <t>2022-08-09T08:44:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:44:45+00:00</t>
+    <t>2022-08-09T08:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:50:44+00:00</t>
+    <t>2022-08-09T10:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T10:07:05+00:00</t>
+    <t>2022-08-09T11:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:02:47+00:00</t>
+    <t>2022-08-09T11:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:40:37+00:00</t>
+    <t>2022-08-09T11:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:56:01+00:00</t>
+    <t>2022-08-09T12:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:47:03+00:00</t>
+    <t>2022-08-09T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:07:41+00:00</t>
+    <t>2022-08-09T13:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:29:57+00:00</t>
+    <t>2022-08-09T15:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:06:14+00:00</t>
+    <t>2022-08-09T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:26:10+00:00</t>
+    <t>2022-08-09T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:34:44+00:00</t>
+    <t>2022-08-09T15:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:46:26+00:00</t>
+    <t>2022-08-10T01:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T01:00:29+00:00</t>
+    <t>2022-08-10T14:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T14:02:51+00:00</t>
+    <t>2022-08-12T01:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:06:24+00:00</t>
+    <t>2022-08-12T01:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:25:44+00:00</t>
+    <t>2022-08-12T05:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T05:25:03+00:00</t>
+    <t>2022-08-12T11:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T11:25:08+00:00</t>
+    <t>2022-08-12T14:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T14:21:21+00:00</t>
+    <t>2022-08-13T23:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T23:05:38+00:00</t>
+    <t>2022-08-15T03:50:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T03:50:58+00:00</t>
+    <t>2022-08-16T02:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:11:44+00:00</t>
+    <t>2022-08-16T02:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:16:31+00:00</t>
+    <t>2022-08-16T05:36:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T05:36:02+00:00</t>
+    <t>2022-08-16T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T08:28:52+00:00</t>
+    <t>2022-08-17T02:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T02:18:50+00:00</t>
+    <t>2022-08-19T07:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:58:38+00:00</t>
+    <t>2022-08-19T11:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T11:50:06+00:00</t>
+    <t>2022-08-19T12:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T12:05:20+00:00</t>
+    <t>2022-08-19T13:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T13:26:06+00:00</t>
+    <t>2022-08-19T22:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T22:47:44+00:00</t>
+    <t>2022-08-19T23:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T23:18:22+00:00</t>
+    <t>2022-08-20T06:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T06:38:45+00:00</t>
+    <t>2022-08-20T21:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T21:49:31+00:00</t>
+    <t>2022-08-22T05:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:20:45+00:00</t>
+    <t>2022-08-22T05:33:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:33:58+00:00</t>
+    <t>2022-08-23T04:13:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T04:13:25+00:00</t>
+    <t>2022-08-23T09:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T09:39:37+00:00</t>
+    <t>2022-08-23T11:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
